--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.52163533333333</v>
+        <v>6.488422666666668</v>
       </c>
       <c r="H2">
-        <v>31.564906</v>
+        <v>19.465268</v>
       </c>
       <c r="I2">
-        <v>0.4782136086181363</v>
+        <v>0.3444204430827928</v>
       </c>
       <c r="J2">
-        <v>0.4973545982298819</v>
+        <v>0.361825925629615</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.517755</v>
+        <v>2.271905</v>
       </c>
       <c r="N2">
-        <v>7.553265</v>
+        <v>6.815715</v>
       </c>
       <c r="O2">
-        <v>0.2504376744648923</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P2">
-        <v>0.2866298851167919</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q2">
-        <v>26.49089996867666</v>
+        <v>14.74107989851333</v>
       </c>
       <c r="R2">
-        <v>238.41809971809</v>
+        <v>132.66971908662</v>
       </c>
       <c r="S2">
-        <v>0.1197627040397902</v>
+        <v>0.0966579628247137</v>
       </c>
       <c r="T2">
-        <v>0.1425566913529393</v>
+        <v>0.1111126104649428</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.52163533333333</v>
+        <v>6.488422666666668</v>
       </c>
       <c r="H3">
-        <v>31.564906</v>
+        <v>19.465268</v>
       </c>
       <c r="I3">
-        <v>0.4782136086181363</v>
+        <v>0.3444204430827928</v>
       </c>
       <c r="J3">
-        <v>0.4973545982298819</v>
+        <v>0.361825925629615</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.687724000000001</v>
+        <v>3.687724</v>
       </c>
       <c r="N3">
         <v>11.063172</v>
       </c>
       <c r="O3">
-        <v>0.3668129038085003</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P3">
-        <v>0.4198231783721755</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q3">
-        <v>38.80088713798134</v>
+        <v>23.92751199001067</v>
       </c>
       <c r="R3">
-        <v>349.207984241832</v>
+        <v>215.347607910096</v>
       </c>
       <c r="S3">
-        <v>0.1754149224179602</v>
+        <v>0.1568938354815912</v>
       </c>
       <c r="T3">
-        <v>0.2088009882068854</v>
+        <v>0.1803564146890917</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.52163533333333</v>
+        <v>6.488422666666668</v>
       </c>
       <c r="H4">
-        <v>31.564906</v>
+        <v>19.465268</v>
       </c>
       <c r="I4">
-        <v>0.4782136086181363</v>
+        <v>0.3444204430827928</v>
       </c>
       <c r="J4">
-        <v>0.4973545982298819</v>
+        <v>0.361825925629615</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.7E-05</v>
+        <v>0.044076</v>
       </c>
       <c r="N4">
-        <v>0.000111</v>
+        <v>0.132228</v>
       </c>
       <c r="O4">
-        <v>3.680339808758603E-06</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P4">
-        <v>4.212207204164545E-06</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q4">
-        <v>0.0003893005073333334</v>
+        <v>0.285983717456</v>
       </c>
       <c r="R4">
-        <v>0.003503704566000001</v>
+        <v>2.573853457104001</v>
       </c>
       <c r="S4">
-        <v>1.759988580887433E-06</v>
+        <v>0.001875208853126377</v>
       </c>
       <c r="T4">
-        <v>2.094960621688271E-06</v>
+        <v>0.002155635653274596</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.52163533333333</v>
+        <v>6.488422666666668</v>
       </c>
       <c r="H5">
-        <v>31.564906</v>
+        <v>19.465268</v>
       </c>
       <c r="I5">
-        <v>0.4782136086181363</v>
+        <v>0.3444204430827928</v>
       </c>
       <c r="J5">
-        <v>0.4973545982298819</v>
+        <v>0.361825925629615</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,43 +744,43 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.8082785</v>
+        <v>2.0917535</v>
       </c>
       <c r="N5">
-        <v>7.616557</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O5">
-        <v>0.3788042963889053</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P5">
-        <v>0.2890316780750441</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q5">
-        <v>40.06931762477367</v>
+        <v>13.57218082247934</v>
       </c>
       <c r="R5">
-        <v>240.415905748642</v>
+        <v>81.43308493487602</v>
       </c>
       <c r="S5">
-        <v>0.1811493695361925</v>
+        <v>0.08899343592336158</v>
       </c>
       <c r="T5">
-        <v>0.1437512341247221</v>
+        <v>0.06820126482230576</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.52163533333333</v>
+        <v>8.509821666666667</v>
       </c>
       <c r="H6">
-        <v>31.564906</v>
+        <v>25.529465</v>
       </c>
       <c r="I6">
-        <v>0.4782136086181363</v>
+        <v>0.4517209651039303</v>
       </c>
       <c r="J6">
-        <v>0.4973545982298819</v>
+        <v>0.4745489404232121</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.039625</v>
+        <v>2.271905</v>
       </c>
       <c r="N6">
-        <v>0.118875</v>
+        <v>6.815715</v>
       </c>
       <c r="O6">
-        <v>0.003941444997893504</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P6">
-        <v>0.004511046228784326</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q6">
-        <v>0.4169198000833333</v>
+        <v>19.33350639360834</v>
       </c>
       <c r="R6">
-        <v>3.75227820075</v>
+        <v>174.001557542475</v>
       </c>
       <c r="S6">
-        <v>0.001884852635612555</v>
+        <v>0.1267707220319201</v>
       </c>
       <c r="T6">
-        <v>0.002243589584713452</v>
+        <v>0.1457285612468008</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>25.529465</v>
       </c>
       <c r="I7">
-        <v>0.3867756673737729</v>
+        <v>0.4517209651039303</v>
       </c>
       <c r="J7">
-        <v>0.4022567597096229</v>
+        <v>0.4745489404232121</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.517755</v>
+        <v>3.687724</v>
       </c>
       <c r="N7">
-        <v>7.553265</v>
+        <v>11.063172</v>
       </c>
       <c r="O7">
-        <v>0.2504376744648923</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P7">
-        <v>0.2866298851167919</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q7">
-        <v>21.42564605035833</v>
+        <v>31.38187359588667</v>
       </c>
       <c r="R7">
-        <v>192.830814453225</v>
+        <v>282.43686236298</v>
       </c>
       <c r="S7">
-        <v>0.09686319867669439</v>
+        <v>0.2057724394877605</v>
       </c>
       <c r="T7">
-        <v>0.1152988088230222</v>
+        <v>0.236544535442854</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>25.529465</v>
       </c>
       <c r="I8">
-        <v>0.3867756673737729</v>
+        <v>0.4517209651039303</v>
       </c>
       <c r="J8">
-        <v>0.4022567597096229</v>
+        <v>0.4745489404232121</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.687724000000001</v>
+        <v>0.044076</v>
       </c>
       <c r="N8">
-        <v>11.063172</v>
+        <v>0.132228</v>
       </c>
       <c r="O8">
-        <v>0.3668129038085003</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P8">
-        <v>0.4198231783721755</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q8">
-        <v>31.38187359588667</v>
+        <v>0.3750788997800001</v>
       </c>
       <c r="R8">
-        <v>282.43686236298</v>
+        <v>3.375710098020001</v>
       </c>
       <c r="S8">
-        <v>0.1418743056718443</v>
+        <v>0.002459410206095286</v>
       </c>
       <c r="T8">
-        <v>0.1688767113829863</v>
+        <v>0.002827200990144391</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>25.529465</v>
       </c>
       <c r="I9">
-        <v>0.3867756673737729</v>
+        <v>0.4517209651039303</v>
       </c>
       <c r="J9">
-        <v>0.4022567597096229</v>
+        <v>0.4745489404232121</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>3.7E-05</v>
+        <v>2.0917535</v>
       </c>
       <c r="N9">
-        <v>0.000111</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O9">
-        <v>3.680339808758603E-06</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P9">
-        <v>4.212207204164545E-06</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q9">
-        <v>0.0003148634016666667</v>
+        <v>17.80044925562584</v>
       </c>
       <c r="R9">
-        <v>0.002833770615000001</v>
+        <v>106.802695533755</v>
       </c>
       <c r="S9">
-        <v>1.423465885694872E-06</v>
+        <v>0.1167183933781545</v>
       </c>
       <c r="T9">
-        <v>1.69438882117276E-06</v>
+        <v>0.08944864274341284</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,117 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>8.509821666666667</v>
+        <v>0.331724</v>
       </c>
       <c r="H10">
-        <v>25.529465</v>
+        <v>0.9951719999999999</v>
       </c>
       <c r="I10">
-        <v>0.3867756673737729</v>
+        <v>0.01760867516355742</v>
       </c>
       <c r="J10">
-        <v>0.4022567597096229</v>
+        <v>0.0184985395557192</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.8082785</v>
+        <v>2.271905</v>
       </c>
       <c r="N10">
-        <v>7.616557</v>
+        <v>6.815715</v>
       </c>
       <c r="O10">
-        <v>0.3788042963889053</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P10">
-        <v>0.2890316780750441</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q10">
-        <v>32.40777089200083</v>
+        <v>0.7536454142199999</v>
       </c>
       <c r="R10">
-        <v>194.446625352005</v>
+        <v>6.78280872798</v>
       </c>
       <c r="S10">
-        <v>0.1465122845398713</v>
+        <v>0.004941688867586921</v>
       </c>
       <c r="T10">
-        <v>0.1162649462759021</v>
+        <v>0.005680690282898652</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>8.509821666666667</v>
+        <v>0.331724</v>
       </c>
       <c r="H11">
-        <v>25.529465</v>
+        <v>0.9951719999999999</v>
       </c>
       <c r="I11">
-        <v>0.3867756673737729</v>
+        <v>0.01760867516355742</v>
       </c>
       <c r="J11">
-        <v>0.4022567597096229</v>
+        <v>0.0184985395557192</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.039625</v>
+        <v>3.687724</v>
       </c>
       <c r="N11">
-        <v>0.118875</v>
+        <v>11.063172</v>
       </c>
       <c r="O11">
-        <v>0.003941444997893504</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P11">
-        <v>0.004511046228784326</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q11">
-        <v>0.3372016835416667</v>
+        <v>1.223306556176</v>
       </c>
       <c r="R11">
-        <v>3.034815151875</v>
+        <v>11.009759005584</v>
       </c>
       <c r="S11">
-        <v>0.001524455019477279</v>
+        <v>0.008021279339379557</v>
       </c>
       <c r="T11">
-        <v>0.001814598838891097</v>
+        <v>0.00922081596405314</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.331724</v>
+      </c>
+      <c r="H12">
+        <v>0.9951719999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.01760867516355742</v>
+      </c>
+      <c r="J12">
+        <v>0.0184985395557192</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G12">
-        <v>0.1148996666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.344699</v>
-      </c>
-      <c r="I12">
-        <v>0.005222247538993557</v>
-      </c>
-      <c r="J12">
-        <v>0.005431273346901209</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
       <c r="M12">
-        <v>2.517755</v>
+        <v>0.044076</v>
       </c>
       <c r="N12">
-        <v>7.553265</v>
+        <v>0.132228</v>
       </c>
       <c r="O12">
-        <v>0.2504376744648923</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P12">
-        <v>0.2866298851167919</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q12">
-        <v>0.2892892102483333</v>
+        <v>0.014621067024</v>
       </c>
       <c r="R12">
-        <v>2.603602892235</v>
+        <v>0.131589603216</v>
       </c>
       <c r="S12">
-        <v>0.001307847529145553</v>
+        <v>9.587103269184284E-05</v>
       </c>
       <c r="T12">
-        <v>0.001556765255460188</v>
+        <v>0.0001102079994141661</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1148996666666667</v>
+        <v>0.331724</v>
       </c>
       <c r="H13">
-        <v>0.344699</v>
+        <v>0.9951719999999999</v>
       </c>
       <c r="I13">
-        <v>0.005222247538993557</v>
+        <v>0.01760867516355742</v>
       </c>
       <c r="J13">
-        <v>0.005431273346901209</v>
+        <v>0.0184985395557192</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.687724000000001</v>
+        <v>2.0917535</v>
       </c>
       <c r="N13">
-        <v>11.063172</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O13">
-        <v>0.3668129038085003</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P13">
-        <v>0.4198231783721755</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q13">
-        <v>0.4237182583586667</v>
+        <v>0.693884838034</v>
       </c>
       <c r="R13">
-        <v>3.813464325228</v>
+        <v>4.163309028204</v>
       </c>
       <c r="S13">
-        <v>0.001915587784185021</v>
+        <v>0.004549835923899098</v>
       </c>
       <c r="T13">
-        <v>0.002280174439104149</v>
+        <v>0.003486825309353237</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1148996666666667</v>
+        <v>2.7186785</v>
       </c>
       <c r="H14">
-        <v>0.344699</v>
+        <v>5.437357</v>
       </c>
       <c r="I14">
-        <v>0.005222247538993557</v>
+        <v>0.1443137264130649</v>
       </c>
       <c r="J14">
-        <v>0.005431273346901209</v>
+        <v>0.1010711349827635</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>3.7E-05</v>
+        <v>2.271905</v>
       </c>
       <c r="N14">
-        <v>0.000111</v>
+        <v>6.815715</v>
       </c>
       <c r="O14">
-        <v>3.680339808758603E-06</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P14">
-        <v>4.212207204164545E-06</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q14">
-        <v>4.251287666666667E-06</v>
+        <v>6.1765792775425</v>
       </c>
       <c r="R14">
-        <v>3.8261589E-05</v>
+        <v>37.059475665255</v>
       </c>
       <c r="S14">
-        <v>1.921964550894963E-08</v>
+        <v>0.04050012443476479</v>
       </c>
       <c r="T14">
-        <v>2.287764871960415E-08</v>
+        <v>0.03103779153206779</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,117 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1148996666666667</v>
+        <v>2.7186785</v>
       </c>
       <c r="H15">
-        <v>0.344699</v>
+        <v>5.437357</v>
       </c>
       <c r="I15">
-        <v>0.005222247538993557</v>
+        <v>0.1443137264130649</v>
       </c>
       <c r="J15">
-        <v>0.005431273346901209</v>
+        <v>0.1010711349827635</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.8082785</v>
+        <v>3.687724</v>
       </c>
       <c r="N15">
-        <v>7.616557</v>
+        <v>11.063172</v>
       </c>
       <c r="O15">
-        <v>0.3788042963889053</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P15">
-        <v>0.2890316780750441</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q15">
-        <v>0.4375699302238333</v>
+        <v>10.025735952734</v>
       </c>
       <c r="R15">
-        <v>2.625419581343</v>
+        <v>60.154415716404</v>
       </c>
       <c r="S15">
-        <v>0.001978209804577147</v>
+        <v>0.06573922804037516</v>
       </c>
       <c r="T15">
-        <v>0.001569810049539118</v>
+        <v>0.05038010336691155</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.7186785</v>
+      </c>
+      <c r="H16">
+        <v>5.437357</v>
+      </c>
+      <c r="I16">
+        <v>0.1443137264130649</v>
+      </c>
+      <c r="J16">
+        <v>0.1010711349827635</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G16">
-        <v>0.1148996666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.344699</v>
-      </c>
-      <c r="I16">
-        <v>0.005222247538993557</v>
-      </c>
-      <c r="J16">
-        <v>0.005431273346901209</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M16">
-        <v>0.039625</v>
+        <v>0.044076</v>
       </c>
       <c r="N16">
-        <v>0.118875</v>
+        <v>0.132228</v>
       </c>
       <c r="O16">
-        <v>0.003941444997893504</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P16">
-        <v>0.004511046228784326</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q16">
-        <v>0.004552899291666667</v>
+        <v>0.119828473566</v>
       </c>
       <c r="R16">
-        <v>0.04097609362499999</v>
+        <v>0.7189708413960001</v>
       </c>
       <c r="S16">
-        <v>2.058320144032781E-05</v>
+        <v>0.0007857210070785059</v>
       </c>
       <c r="T16">
-        <v>2.450072514903552E-05</v>
+        <v>0.0006021474047407001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.5402755</v>
+        <v>2.7186785</v>
       </c>
       <c r="H17">
-        <v>5.080551</v>
+        <v>5.437357</v>
       </c>
       <c r="I17">
-        <v>0.1154567969002575</v>
+        <v>0.1443137264130649</v>
       </c>
       <c r="J17">
-        <v>0.08005204898729699</v>
+        <v>0.1010711349827635</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.517755</v>
+        <v>2.0917535</v>
       </c>
       <c r="N17">
-        <v>7.553265</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O17">
-        <v>0.2504376744648923</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P17">
-        <v>0.2866298851167919</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q17">
-        <v>6.395791341502499</v>
+        <v>5.686805267749751</v>
       </c>
       <c r="R17">
-        <v>38.374748049015</v>
+        <v>22.747221070999</v>
       </c>
       <c r="S17">
-        <v>0.02891473171686589</v>
+        <v>0.03728865293084648</v>
       </c>
       <c r="T17">
-        <v>0.02294530960459274</v>
+        <v>0.01905109267904341</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,25 +1523,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.5402755</v>
+        <v>0.790022</v>
       </c>
       <c r="H18">
-        <v>5.080551</v>
+        <v>2.370066</v>
       </c>
       <c r="I18">
-        <v>0.1154567969002575</v>
+        <v>0.04193619023665445</v>
       </c>
       <c r="J18">
-        <v>0.08005204898729699</v>
+        <v>0.04405545940869034</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.687724000000001</v>
+        <v>2.271905</v>
       </c>
       <c r="N18">
-        <v>11.063172</v>
+        <v>6.815715</v>
       </c>
       <c r="O18">
-        <v>0.3668129038085003</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P18">
-        <v>0.4198231783721755</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q18">
-        <v>9.367834927962001</v>
+        <v>1.79485493191</v>
       </c>
       <c r="R18">
-        <v>56.207009567772</v>
+        <v>16.15369438719</v>
       </c>
       <c r="S18">
-        <v>0.04235104293541173</v>
+        <v>0.01176894925464771</v>
       </c>
       <c r="T18">
-        <v>0.03360770564105212</v>
+        <v>0.01352892856313128</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.5402755</v>
+        <v>0.790022</v>
       </c>
       <c r="H19">
-        <v>5.080551</v>
+        <v>2.370066</v>
       </c>
       <c r="I19">
-        <v>0.1154567969002575</v>
+        <v>0.04193619023665445</v>
       </c>
       <c r="J19">
-        <v>0.08005204898729699</v>
+        <v>0.04405545940869034</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>3.7E-05</v>
+        <v>3.687724</v>
       </c>
       <c r="N19">
-        <v>0.000111</v>
+        <v>11.063172</v>
       </c>
       <c r="O19">
-        <v>3.680339808758603E-06</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P19">
-        <v>4.212207204164545E-06</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q19">
-        <v>9.399019350000001E-05</v>
+        <v>2.913383089928</v>
       </c>
       <c r="R19">
-        <v>0.0005639411610000001</v>
+        <v>26.220447809352</v>
       </c>
       <c r="S19">
-        <v>4.249202458237747E-07</v>
+        <v>0.0191031916480427</v>
       </c>
       <c r="T19">
-        <v>3.371958174524255E-07</v>
+        <v>0.02195996512026019</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,427 +1647,117 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.5402755</v>
+        <v>0.790022</v>
       </c>
       <c r="H20">
-        <v>5.080551</v>
+        <v>2.370066</v>
       </c>
       <c r="I20">
-        <v>0.1154567969002575</v>
+        <v>0.04193619023665445</v>
       </c>
       <c r="J20">
-        <v>0.08005204898729699</v>
+        <v>0.04405545940869034</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>3.8082785</v>
+        <v>0.044076</v>
       </c>
       <c r="N20">
-        <v>7.616557</v>
+        <v>0.132228</v>
       </c>
       <c r="O20">
-        <v>0.3788042963889053</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P20">
-        <v>0.2890316780750441</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q20">
-        <v>9.674076570726751</v>
+        <v>0.034821009672</v>
       </c>
       <c r="R20">
-        <v>38.696306282907</v>
+        <v>0.313389087048</v>
       </c>
       <c r="S20">
-        <v>0.04373553071311881</v>
+        <v>0.0002283230185011487</v>
       </c>
       <c r="T20">
-        <v>0.02313757805214408</v>
+        <v>0.0002624674250677622</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.5402755</v>
+        <v>0.790022</v>
       </c>
       <c r="H21">
-        <v>5.080551</v>
+        <v>2.370066</v>
       </c>
       <c r="I21">
-        <v>0.1154567969002575</v>
+        <v>0.04193619023665445</v>
       </c>
       <c r="J21">
-        <v>0.08005204898729699</v>
+        <v>0.04405545940869034</v>
       </c>
       <c r="K21">
         <v>2</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.039625</v>
+        <v>2.0917535</v>
       </c>
       <c r="N21">
-        <v>0.118875</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O21">
-        <v>0.003941444997893504</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P21">
-        <v>0.004511046228784326</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q21">
-        <v>0.1006584166875</v>
+        <v>1.652531283577</v>
       </c>
       <c r="R21">
-        <v>0.603950500125</v>
+        <v>9.915187701462001</v>
       </c>
       <c r="S21">
-        <v>0.0004550666146153263</v>
+        <v>0.0108357263154629</v>
       </c>
       <c r="T21">
-        <v>0.0003611184936906042</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.315325</v>
-      </c>
-      <c r="H22">
-        <v>0.945975</v>
-      </c>
-      <c r="I22">
-        <v>0.01433167956883957</v>
-      </c>
-      <c r="J22">
-        <v>0.01490531972629706</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>2.517755</v>
-      </c>
-      <c r="N22">
-        <v>7.553265</v>
-      </c>
-      <c r="O22">
-        <v>0.2504376744648923</v>
-      </c>
-      <c r="P22">
-        <v>0.2866298851167919</v>
-      </c>
-      <c r="Q22">
-        <v>0.7939110953749999</v>
-      </c>
-      <c r="R22">
-        <v>7.145199858374999</v>
-      </c>
-      <c r="S22">
-        <v>0.003589192502396192</v>
-      </c>
-      <c r="T22">
-        <v>0.00427231008077758</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.315325</v>
-      </c>
-      <c r="H23">
-        <v>0.945975</v>
-      </c>
-      <c r="I23">
-        <v>0.01433167956883957</v>
-      </c>
-      <c r="J23">
-        <v>0.01490531972629706</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>3.687724000000001</v>
-      </c>
-      <c r="N23">
-        <v>11.063172</v>
-      </c>
-      <c r="O23">
-        <v>0.3668129038085003</v>
-      </c>
-      <c r="P23">
-        <v>0.4198231783721755</v>
-      </c>
-      <c r="Q23">
-        <v>1.1628315703</v>
-      </c>
-      <c r="R23">
-        <v>10.4654841327</v>
-      </c>
-      <c r="S23">
-        <v>0.005257044999098997</v>
-      </c>
-      <c r="T23">
-        <v>0.006257598702147519</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.315325</v>
-      </c>
-      <c r="H24">
-        <v>0.945975</v>
-      </c>
-      <c r="I24">
-        <v>0.01433167956883957</v>
-      </c>
-      <c r="J24">
-        <v>0.01490531972629706</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>3.7E-05</v>
-      </c>
-      <c r="N24">
-        <v>0.000111</v>
-      </c>
-      <c r="O24">
-        <v>3.680339808758603E-06</v>
-      </c>
-      <c r="P24">
-        <v>4.212207204164545E-06</v>
-      </c>
-      <c r="Q24">
-        <v>1.1667025E-05</v>
-      </c>
-      <c r="R24">
-        <v>0.000105003225</v>
-      </c>
-      <c r="S24">
-        <v>5.274545084357259E-08</v>
-      </c>
-      <c r="T24">
-        <v>6.278429513148439E-08</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.315325</v>
-      </c>
-      <c r="H25">
-        <v>0.945975</v>
-      </c>
-      <c r="I25">
-        <v>0.01433167956883957</v>
-      </c>
-      <c r="J25">
-        <v>0.01490531972629706</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>3.8082785</v>
-      </c>
-      <c r="N25">
-        <v>7.616557</v>
-      </c>
-      <c r="O25">
-        <v>0.3788042963889053</v>
-      </c>
-      <c r="P25">
-        <v>0.2890316780750441</v>
-      </c>
-      <c r="Q25">
-        <v>1.2008454180125</v>
-      </c>
-      <c r="R25">
-        <v>7.205072508075</v>
-      </c>
-      <c r="S25">
-        <v>0.005428901795145522</v>
-      </c>
-      <c r="T25">
-        <v>0.004308109572736698</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.315325</v>
-      </c>
-      <c r="H26">
-        <v>0.945975</v>
-      </c>
-      <c r="I26">
-        <v>0.01433167956883957</v>
-      </c>
-      <c r="J26">
-        <v>0.01490531972629706</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.039625</v>
-      </c>
-      <c r="N26">
-        <v>0.118875</v>
-      </c>
-      <c r="O26">
-        <v>0.003941444997893504</v>
-      </c>
-      <c r="P26">
-        <v>0.004511046228784326</v>
-      </c>
-      <c r="Q26">
-        <v>0.012494753125</v>
-      </c>
-      <c r="R26">
-        <v>0.112452778125</v>
-      </c>
-      <c r="S26">
-        <v>5.648752674801524E-05</v>
-      </c>
-      <c r="T26">
-        <v>6.723858634013699E-05</v>
+        <v>0.008304098300231105</v>
       </c>
     </row>
   </sheetData>
